--- a/new version/task.xlsx
+++ b/new version/task.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\SDR_stochastic\SDR_stochastic\new version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2F1D5F-5313-4845-8207-7D0BC26ED6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109E280-4577-4523-8A56-02501A50DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Average order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,25 +46,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Battery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Battery = 8</t>
+  </si>
+  <si>
+    <t>Battery = 10</t>
+  </si>
+  <si>
+    <t>Yuchen</t>
+  </si>
+  <si>
+    <t>Hai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -62,18 +81,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,9 +127,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,22 +419,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H6:J16"/>
+  <dimension ref="G5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:11">
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="7:11">
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
@@ -399,75 +453,153 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:11">
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
         <v>40</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="1">
+      <c r="J7" s="4">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="1">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="7:11">
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
         <v>50</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="1">
+      <c r="J9" s="4">
+        <v>50</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="7:11">
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="1">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="7:11">
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
         <v>60</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="1">
+      <c r="J11" s="5">
+        <v>60</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11">
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="1">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11">
+      <c r="G13" s="6"/>
+      <c r="H13" s="5">
         <v>70</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="1">
+      <c r="J13" s="5">
+        <v>70</v>
+      </c>
+      <c r="K13" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="7:11">
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H15" s="1">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="7:11">
+      <c r="G15" s="6"/>
+      <c r="H15" s="5">
         <v>80</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="I16" s="1">
+      <c r="J15" s="5">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11">
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <v>9</v>
       </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new version/task.xlsx
+++ b/new version/task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\SDR_stochastic\SDR_stochastic\new version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109E280-4577-4523-8A56-02501A50DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01169D37-BEC8-4BC9-B729-69A1F65FCB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6550" yWindow="1960" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Average order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,23 +56,39 @@
   </si>
   <si>
     <t>Hai</t>
+  </si>
+  <si>
+    <t>4 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -81,7 +97,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,13 +143,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,7 +157,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,30 +438,30 @@
   <dimension ref="G5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:11">
-      <c r="H5" s="3" t="s">
+    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="7:11">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.3">
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,137 +475,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:11">
+    <row r="7" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>40</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="6"/>
+      <c r="H9" s="3">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>50</v>
+      </c>
+      <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="J7" s="4">
-        <v>40</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="7:11">
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="7:11">
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
-        <v>50</v>
-      </c>
-      <c r="K9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="7:11">
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>6</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="7:11">
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>60</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>6</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>60</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="7:11">
+    <row r="12" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
         <v>7</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="7:11">
+    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>70</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>70</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="7:11">
+    <row r="14" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>8</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="7:11">
+    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>80</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>8</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>80</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="7:11">
+    <row r="16" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
         <v>9</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>7</v>
       </c>
     </row>
